--- a/chain_data/工程机械/node_gcjx_code_vcb_20231020.xlsx
+++ b/chain_data/工程机械/node_gcjx_code_vcb_20231020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="455">
   <si>
     <t>node_code</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>credit_no</t>
-  </si>
-  <si>
-    <t>vcb_list</t>
   </si>
   <si>
     <t>工程机械产业链</t>
@@ -1388,11 +1385,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2025,8 +2023,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2376,5736 +2378,5008 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="17.1818181818182" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>29</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2901</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2902</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>2903</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>290101</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>290102</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>290103</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>290201</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>290301</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>290301</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>290302</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>290303</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>29010101</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>29010201</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>29010202</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>29010203</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
         <v>29010204</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
         <v>29010205</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
         <v>43</v>
       </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
         <v>29010206</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
         <v>29010207</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
         <v>29010208</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
         <v>29010209</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
         <v>29010301</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
         <v>29010302</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
         <v>56</v>
       </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
         <v>29010303</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1">
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
         <v>29010304</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
         <v>60</v>
       </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
         <v>29010305</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
         <v>29010306</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
         <v>63</v>
       </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1">
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
         <v>29020101</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
         <v>29020102</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
         <v>67</v>
       </c>
-      <c r="E30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1">
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
         <v>29020103</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
         <v>69</v>
       </c>
-      <c r="E31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
         <v>29020104</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
         <v>71</v>
       </c>
-      <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
         <v>29020105</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
         <v>73</v>
       </c>
-      <c r="E33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1">
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
         <v>29020106</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s">
         <v>75</v>
       </c>
-      <c r="E34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
         <v>29020107</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
         <v>77</v>
       </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1">
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
         <v>29020108</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
         <v>79</v>
       </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1">
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
         <v>29020109</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" t="s">
         <v>81</v>
       </c>
-      <c r="E37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1">
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2">
         <v>29030101</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
         <v>83</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>84</v>
       </c>
-      <c r="F38" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2">
         <v>29030201</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
         <v>86</v>
       </c>
-      <c r="E39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" t="s">
-        <v>87</v>
-      </c>
-      <c r="I39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1">
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
         <v>29030202</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s">
         <v>88</v>
       </c>
-      <c r="E40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" t="s">
-        <v>89</v>
-      </c>
-      <c r="I40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
         <v>29030301</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
         <v>90</v>
       </c>
-      <c r="E41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="1">
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
         <v>29030302</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s">
         <v>92</v>
       </c>
-      <c r="E42" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
         <v>29030303</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
         <v>94</v>
       </c>
-      <c r="E43" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" t="s">
-        <v>95</v>
-      </c>
-      <c r="I43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
         <v>2901020401</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F44" t="s">
         <v>96</v>
       </c>
-      <c r="E44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1">
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
         <v>2901020402</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" t="s">
         <v>98</v>
       </c>
-      <c r="E45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" t="s">
-        <v>99</v>
-      </c>
-      <c r="I45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1">
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
         <v>2901020403</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
         <v>100</v>
       </c>
-      <c r="E46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" t="s">
-        <v>101</v>
-      </c>
-      <c r="I46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
         <v>2901020801</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
         <v>102</v>
       </c>
-      <c r="E47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>103</v>
-      </c>
-      <c r="I47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
         <v>2901020802</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
         <v>104</v>
       </c>
-      <c r="E48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1">
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
         <v>2901020803</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" t="s">
         <v>106</v>
       </c>
-      <c r="E49" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1">
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
         <v>2901020804</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
         <v>108</v>
       </c>
-      <c r="E50" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" t="s">
-        <v>109</v>
-      </c>
-      <c r="I50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1">
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
         <v>2901020805</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
-      </c>
-      <c r="I51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
         <v>2901020806</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" t="s">
         <v>111</v>
       </c>
-      <c r="E52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" t="s">
-        <v>112</v>
-      </c>
-      <c r="I52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1">
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
         <v>2901020807</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
-      </c>
-      <c r="I53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
         <v>2901020808</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" t="s">
         <v>114</v>
       </c>
-      <c r="E54" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1">
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
         <v>2901020901</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" t="s">
         <v>116</v>
       </c>
-      <c r="E55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F55" t="s">
-        <v>117</v>
-      </c>
-      <c r="I55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1">
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
         <v>2901020902</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" t="s">
         <v>118</v>
       </c>
-      <c r="E56" t="s">
-        <v>118</v>
-      </c>
-      <c r="F56" t="s">
-        <v>119</v>
-      </c>
-      <c r="I56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1">
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
         <v>2901020903</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" t="s">
         <v>120</v>
       </c>
-      <c r="E57" t="s">
-        <v>120</v>
-      </c>
-      <c r="F57" t="s">
-        <v>121</v>
-      </c>
-      <c r="I57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1">
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
         <v>2902010101</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" t="s">
         <v>122</v>
       </c>
-      <c r="E58" t="s">
-        <v>122</v>
-      </c>
-      <c r="F58" t="s">
-        <v>123</v>
-      </c>
-      <c r="I58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1">
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
         <v>2902010102</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" t="s">
         <v>124</v>
       </c>
-      <c r="E59" t="s">
-        <v>124</v>
-      </c>
-      <c r="F59" t="s">
-        <v>125</v>
-      </c>
-      <c r="I59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1">
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
         <v>2902010103</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" t="s">
         <v>126</v>
       </c>
-      <c r="E60" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" t="s">
-        <v>127</v>
-      </c>
-      <c r="I60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1">
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
         <v>2902010105</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" t="s">
         <v>128</v>
       </c>
-      <c r="E61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" t="s">
-        <v>129</v>
-      </c>
-      <c r="I61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1">
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
         <v>2902010201</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" t="s">
         <v>130</v>
       </c>
-      <c r="E62" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" t="s">
-        <v>131</v>
-      </c>
-      <c r="I62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1">
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
         <v>2902010202</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
-        <v>132</v>
-      </c>
-      <c r="I63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
         <v>2902010203</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
-      </c>
-      <c r="I64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
         <v>2902010204</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
-      </c>
-      <c r="I65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
         <v>2902010205</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F66" t="s">
-        <v>135</v>
-      </c>
-      <c r="I66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
         <v>2902010301</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" t="s">
         <v>136</v>
       </c>
-      <c r="E67" t="s">
-        <v>136</v>
-      </c>
-      <c r="F67" t="s">
-        <v>137</v>
-      </c>
-      <c r="I67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1">
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
         <v>2902010302</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" t="s">
         <v>138</v>
       </c>
-      <c r="E68" t="s">
-        <v>138</v>
-      </c>
-      <c r="F68" t="s">
-        <v>139</v>
-      </c>
-      <c r="I68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1">
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
         <v>2902010303</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" t="s">
         <v>140</v>
       </c>
-      <c r="E69" t="s">
-        <v>140</v>
-      </c>
-      <c r="F69" t="s">
-        <v>141</v>
-      </c>
-      <c r="I69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1">
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
         <v>2902010304</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" t="s">
         <v>142</v>
       </c>
-      <c r="E70" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" t="s">
-        <v>143</v>
-      </c>
-      <c r="I70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1">
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
         <v>2902010401</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" t="s">
         <v>144</v>
       </c>
-      <c r="E71" t="s">
-        <v>144</v>
-      </c>
-      <c r="F71" t="s">
-        <v>145</v>
-      </c>
-      <c r="I71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1">
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
         <v>2902010402</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" t="s">
         <v>146</v>
       </c>
-      <c r="E72" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" t="s">
-        <v>147</v>
-      </c>
-      <c r="I72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1">
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
         <v>2902010403</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" t="s">
         <v>148</v>
       </c>
-      <c r="E73" t="s">
-        <v>148</v>
-      </c>
-      <c r="F73" t="s">
-        <v>149</v>
-      </c>
-      <c r="I73" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1">
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
         <v>2902010404</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" t="s">
         <v>150</v>
       </c>
-      <c r="E74" t="s">
-        <v>150</v>
-      </c>
-      <c r="F74" t="s">
-        <v>151</v>
-      </c>
-      <c r="I74" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1">
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
         <v>2902010405</v>
       </c>
       <c r="B75">
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" t="s">
         <v>152</v>
       </c>
-      <c r="E75" t="s">
-        <v>152</v>
-      </c>
-      <c r="F75" t="s">
-        <v>153</v>
-      </c>
-      <c r="I75" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1">
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
         <v>2902010406</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
-      </c>
-      <c r="I76" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
         <v>2902010501</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" t="s">
         <v>155</v>
       </c>
-      <c r="E77" t="s">
-        <v>155</v>
-      </c>
-      <c r="F77" t="s">
-        <v>156</v>
-      </c>
-      <c r="I77" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1">
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
         <v>2902010502</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" t="s">
         <v>157</v>
       </c>
-      <c r="E78" t="s">
-        <v>157</v>
-      </c>
-      <c r="F78" t="s">
-        <v>158</v>
-      </c>
-      <c r="I78" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1">
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
         <v>2902010503</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" t="s">
         <v>159</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>160</v>
       </c>
-      <c r="F79" t="s">
-        <v>161</v>
-      </c>
-      <c r="I79" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1">
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
         <v>2902010504</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F80" t="s">
         <v>162</v>
       </c>
-      <c r="E80" t="s">
-        <v>162</v>
-      </c>
-      <c r="F80" t="s">
-        <v>163</v>
-      </c>
-      <c r="I80" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1">
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
         <v>2902010505</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" t="s">
         <v>164</v>
       </c>
-      <c r="E81" t="s">
-        <v>164</v>
-      </c>
-      <c r="F81" t="s">
-        <v>165</v>
-      </c>
-      <c r="I81" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1">
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
         <v>2902010506</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D82" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" t="s">
+        <v>165</v>
+      </c>
+      <c r="F82" t="s">
         <v>166</v>
       </c>
-      <c r="E82" t="s">
-        <v>166</v>
-      </c>
-      <c r="F82" t="s">
-        <v>167</v>
-      </c>
-      <c r="I82" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1">
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
         <v>2902010507</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83" t="s">
+        <v>167</v>
+      </c>
+      <c r="F83" t="s">
         <v>168</v>
       </c>
-      <c r="E83" t="s">
-        <v>168</v>
-      </c>
-      <c r="F83" t="s">
-        <v>169</v>
-      </c>
-      <c r="I83" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1">
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
         <v>2902010508</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F84" t="s">
-        <v>170</v>
-      </c>
-      <c r="I84" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
         <v>2902010509</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F85" t="s">
-        <v>171</v>
-      </c>
-      <c r="I85" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
         <v>2902010601</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D86" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" t="s">
         <v>172</v>
       </c>
-      <c r="E86" t="s">
-        <v>172</v>
-      </c>
-      <c r="F86" t="s">
-        <v>173</v>
-      </c>
-      <c r="I86" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1">
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
         <v>2902010602</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
-      </c>
-      <c r="I87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
         <v>2902010603</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D88" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
       </c>
-      <c r="E88" t="s">
-        <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
-      </c>
-      <c r="I88" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1">
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
         <v>2902010604</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D89" t="s">
+        <v>176</v>
+      </c>
+      <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
       </c>
-      <c r="E89" t="s">
-        <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
-      </c>
-      <c r="I89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1">
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
         <v>2902010605</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F90" t="s">
-        <v>179</v>
-      </c>
-      <c r="I90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
         <v>2902010701</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91" t="s">
+        <v>179</v>
+      </c>
+      <c r="E91" t="s">
+        <v>179</v>
+      </c>
+      <c r="F91" t="s">
         <v>180</v>
       </c>
-      <c r="E91" t="s">
-        <v>180</v>
-      </c>
-      <c r="F91" t="s">
-        <v>181</v>
-      </c>
-      <c r="I91" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1">
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
         <v>2902010702</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D92" t="s">
+        <v>181</v>
+      </c>
+      <c r="E92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F92" t="s">
         <v>182</v>
       </c>
-      <c r="E92" t="s">
-        <v>182</v>
-      </c>
-      <c r="F92" t="s">
-        <v>183</v>
-      </c>
-      <c r="I92" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1">
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
         <v>2902010801</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s">
+        <v>183</v>
+      </c>
+      <c r="E93" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" t="s">
         <v>184</v>
       </c>
-      <c r="E93" t="s">
-        <v>184</v>
-      </c>
-      <c r="F93" t="s">
-        <v>185</v>
-      </c>
-      <c r="I93" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1">
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
         <v>2902010802</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D94" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" t="s">
+        <v>185</v>
+      </c>
+      <c r="F94" t="s">
         <v>186</v>
       </c>
-      <c r="E94" t="s">
-        <v>186</v>
-      </c>
-      <c r="F94" t="s">
-        <v>187</v>
-      </c>
-      <c r="I94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1">
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
         <v>2902010803</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
-      </c>
-      <c r="I95" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
         <v>2902010901</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>189</v>
-      </c>
-      <c r="I96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
         <v>2902010902</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D97" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" t="s">
         <v>190</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>191</v>
       </c>
-      <c r="F97" t="s">
-        <v>192</v>
-      </c>
-      <c r="I97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1">
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
         <v>2903030101</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D98" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
       </c>
-      <c r="E98" t="s">
-        <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
-      </c>
-      <c r="I98" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1">
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
         <v>2903030102</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D99" t="s">
+        <v>194</v>
+      </c>
+      <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
       </c>
-      <c r="E99" t="s">
-        <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
-      </c>
-      <c r="I99" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1">
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2">
         <v>2903030103</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D100" t="s">
+        <v>196</v>
+      </c>
+      <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
       </c>
-      <c r="E100" t="s">
-        <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
-      </c>
-      <c r="I100" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1">
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
         <v>2903030201</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" t="s">
+        <v>198</v>
+      </c>
+      <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
       </c>
-      <c r="E101" t="s">
-        <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
-      </c>
-      <c r="I101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1">
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
         <v>2903030202</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" t="s">
+        <v>200</v>
+      </c>
+      <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
       </c>
-      <c r="E102" t="s">
-        <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
-      </c>
-      <c r="I102" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1">
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
         <v>2903030203</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" t="s">
+        <v>202</v>
+      </c>
+      <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
       </c>
-      <c r="E103" t="s">
-        <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
-      </c>
-      <c r="I103" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1">
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
         <v>2903030204</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" t="s">
+        <v>204</v>
+      </c>
+      <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
       </c>
-      <c r="E104" t="s">
-        <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
-      </c>
-      <c r="I104" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1">
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
         <v>2903030205</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D105" t="s">
+        <v>206</v>
+      </c>
+      <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
       </c>
-      <c r="E105" t="s">
-        <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
-      </c>
-      <c r="I105" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1">
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2">
         <v>2903030206</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D106" t="s">
+        <v>208</v>
+      </c>
+      <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
       </c>
-      <c r="E106" t="s">
-        <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
-      </c>
-      <c r="I106" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1">
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
         <v>2903030207</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D107" t="s">
+        <v>210</v>
+      </c>
+      <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
       </c>
-      <c r="E107" t="s">
-        <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
-      </c>
-      <c r="I107" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1">
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
         <v>2903030208</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D108" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
       </c>
-      <c r="E108" t="s">
-        <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I108" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1">
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
         <v>2903030209</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D109" t="s">
+        <v>214</v>
+      </c>
+      <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
       </c>
-      <c r="E109" t="s">
-        <v>215</v>
-      </c>
-      <c r="F109" t="s">
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2">
+        <v>290201010101</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" t="s">
         <v>216</v>
       </c>
-      <c r="I109" t="s">
+      <c r="E110" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1">
-        <v>290201010101</v>
-      </c>
-      <c r="B110">
-        <v>4</v>
-      </c>
-      <c r="C110" t="s">
-        <v>122</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
         <v>217</v>
       </c>
-      <c r="E110" t="s">
-        <v>217</v>
-      </c>
-      <c r="F110" t="s">
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2">
+        <v>290201010102</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111" t="s">
         <v>218</v>
       </c>
-      <c r="I110" t="s">
+      <c r="E111" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1">
-        <v>290201010102</v>
-      </c>
-      <c r="B111">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>122</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
         <v>219</v>
       </c>
-      <c r="E111" t="s">
-        <v>219</v>
-      </c>
-      <c r="F111" t="s">
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2">
+        <v>290201010103</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" t="s">
         <v>220</v>
       </c>
-      <c r="I111" t="s">
+      <c r="E112" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
-        <v>290201010103</v>
-      </c>
-      <c r="B112">
-        <v>4</v>
-      </c>
-      <c r="C112" t="s">
-        <v>122</v>
-      </c>
-      <c r="D112" t="s">
+    <row r="113" spans="1:5">
+      <c r="A113" s="2">
+        <v>290201010104</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" t="s">
         <v>221</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>290201010104</v>
-      </c>
-      <c r="B113">
-        <v>4</v>
-      </c>
-      <c r="C113" t="s">
-        <v>122</v>
-      </c>
-      <c r="D113" t="s">
+    <row r="114" spans="1:6">
+      <c r="A114" s="2">
+        <v>290201010105</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" t="s">
         <v>222</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E114" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1">
-        <v>290201010105</v>
-      </c>
-      <c r="B114">
-        <v>4</v>
-      </c>
-      <c r="C114" t="s">
-        <v>122</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2">
+        <v>290201010201</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" t="s">
         <v>223</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E115" t="s">
         <v>223</v>
       </c>
-      <c r="F114" t="s">
-        <v>223</v>
-      </c>
-      <c r="I114" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1">
-        <v>290201010201</v>
-      </c>
-      <c r="B115">
-        <v>4</v>
-      </c>
-      <c r="C115" t="s">
-        <v>124</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
         <v>224</v>
       </c>
-      <c r="E115" t="s">
-        <v>224</v>
-      </c>
-      <c r="F115" t="s">
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2">
+        <v>290201010202</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" t="s">
         <v>225</v>
       </c>
-      <c r="I115" t="s">
+      <c r="E116" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
-        <v>290201010202</v>
-      </c>
-      <c r="B116">
-        <v>4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>124</v>
-      </c>
-      <c r="D116" t="s">
+    <row r="117" spans="1:6">
+      <c r="A117" s="2">
+        <v>290201010301</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" t="s">
         <v>226</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="1">
-        <v>290201010301</v>
-      </c>
-      <c r="B117">
-        <v>4</v>
-      </c>
-      <c r="C117" t="s">
-        <v>126</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
         <v>227</v>
       </c>
-      <c r="E117" t="s">
-        <v>227</v>
-      </c>
-      <c r="F117" t="s">
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2">
+        <v>290201010302</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" t="s">
         <v>228</v>
       </c>
-      <c r="I117" t="s">
+      <c r="E118" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1">
-        <v>290201010302</v>
-      </c>
-      <c r="B118">
-        <v>4</v>
-      </c>
-      <c r="C118" t="s">
-        <v>126</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
         <v>229</v>
       </c>
-      <c r="E118" t="s">
-        <v>229</v>
-      </c>
-      <c r="F118" t="s">
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2">
+        <v>290201010303</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119" t="s">
         <v>230</v>
       </c>
-      <c r="I118" t="s">
+      <c r="E119" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="1">
-        <v>290201010303</v>
-      </c>
-      <c r="B119">
-        <v>4</v>
-      </c>
-      <c r="C119" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
+        <v>290201010304</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" t="s">
         <v>231</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
         <v>231</v>
       </c>
-      <c r="F119" t="s">
-        <v>231</v>
-      </c>
-      <c r="I119" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="1">
-        <v>290201010401</v>
-      </c>
-      <c r="B120">
-        <v>4</v>
-      </c>
-      <c r="C120" t="s">
-        <v>126</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
         <v>232</v>
       </c>
-      <c r="E120" t="s">
-        <v>232</v>
-      </c>
-      <c r="F120" t="s">
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2">
+        <v>290201010501</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" t="s">
         <v>233</v>
       </c>
-      <c r="I120" t="s">
+      <c r="E121" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="1">
-        <v>290201010501</v>
-      </c>
-      <c r="B121">
-        <v>4</v>
-      </c>
-      <c r="C121" t="s">
-        <v>128</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2">
+        <v>290201010502</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" t="s">
         <v>234</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>234</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F122" t="s">
         <v>234</v>
       </c>
-      <c r="I121" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="1">
-        <v>290201010502</v>
-      </c>
-      <c r="B122">
-        <v>4</v>
-      </c>
-      <c r="C122" t="s">
-        <v>128</v>
-      </c>
-      <c r="D122" t="s">
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2">
+        <v>290201010503</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" t="s">
         <v>235</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E123" t="s">
         <v>235</v>
       </c>
-      <c r="F122" t="s">
-        <v>235</v>
-      </c>
-      <c r="I122" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="1">
-        <v>290201010503</v>
-      </c>
-      <c r="B123">
-        <v>4</v>
-      </c>
-      <c r="C123" t="s">
-        <v>128</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>236</v>
       </c>
-      <c r="E123" t="s">
-        <v>236</v>
-      </c>
-      <c r="F123" t="s">
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2">
+        <v>290201020101</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" t="s">
         <v>237</v>
       </c>
-      <c r="I123" t="s">
+      <c r="E124" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="1">
-        <v>290201020101</v>
-      </c>
-      <c r="B124">
-        <v>4</v>
-      </c>
-      <c r="C124" t="s">
-        <v>130</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
         <v>238</v>
       </c>
-      <c r="E124" t="s">
-        <v>238</v>
-      </c>
-      <c r="F124" t="s">
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2">
+        <v>290201020102</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>129</v>
+      </c>
+      <c r="D125" t="s">
         <v>239</v>
       </c>
-      <c r="I124" t="s">
+      <c r="E125" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="1">
-        <v>290201020102</v>
-      </c>
-      <c r="B125">
-        <v>4</v>
-      </c>
-      <c r="C125" t="s">
-        <v>130</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>240</v>
       </c>
-      <c r="E125" t="s">
-        <v>240</v>
-      </c>
-      <c r="F125" t="s">
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2">
+        <v>290201020103</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" t="s">
         <v>241</v>
       </c>
-      <c r="I125" t="s">
+      <c r="E126" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="1">
-        <v>290201020103</v>
-      </c>
-      <c r="B126">
-        <v>4</v>
-      </c>
-      <c r="C126" t="s">
-        <v>130</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
         <v>242</v>
       </c>
-      <c r="E126" t="s">
-        <v>242</v>
-      </c>
-      <c r="F126" t="s">
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2">
+        <v>290201020104</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" t="s">
         <v>243</v>
       </c>
-      <c r="I126" t="s">
+      <c r="E127" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1">
-        <v>290201020104</v>
-      </c>
-      <c r="B127">
-        <v>4</v>
-      </c>
-      <c r="C127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
         <v>244</v>
       </c>
-      <c r="E127" t="s">
-        <v>244</v>
-      </c>
-      <c r="F127" t="s">
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>290201020105</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>129</v>
+      </c>
+      <c r="D128" t="s">
         <v>245</v>
       </c>
-      <c r="I127" t="s">
+      <c r="E128" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1">
-        <v>290201020105</v>
-      </c>
-      <c r="B128">
-        <v>4</v>
-      </c>
-      <c r="C128" t="s">
-        <v>130</v>
-      </c>
-      <c r="D128" t="s">
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>290201020201</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" t="s">
         <v>246</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E129" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1">
-        <v>290201020201</v>
-      </c>
-      <c r="B129">
-        <v>4</v>
-      </c>
-      <c r="C129" t="s">
+    <row r="130" spans="1:6">
+      <c r="A130" s="2">
+        <v>290201020202</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" t="s">
+        <v>247</v>
+      </c>
+      <c r="E130" t="s">
+        <v>247</v>
+      </c>
+      <c r="F130" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2">
+        <v>290201020301</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
         <v>132</v>
       </c>
-      <c r="D129" t="s">
-        <v>247</v>
-      </c>
-      <c r="E129" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1">
-        <v>290201020202</v>
-      </c>
-      <c r="B130">
-        <v>4</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D131" t="s">
+        <v>248</v>
+      </c>
+      <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2">
+        <v>290201020302</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
         <v>132</v>
       </c>
-      <c r="D130" t="s">
-        <v>248</v>
-      </c>
-      <c r="E130" t="s">
-        <v>248</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
-      </c>
-      <c r="I130" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1">
-        <v>290201020301</v>
-      </c>
-      <c r="B131">
-        <v>4</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="D132" t="s">
+        <v>249</v>
+      </c>
+      <c r="E132" t="s">
+        <v>249</v>
+      </c>
+      <c r="F132" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2">
+        <v>290201020303</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>132</v>
+      </c>
+      <c r="D133" t="s">
+        <v>250</v>
+      </c>
+      <c r="E133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>290201020401</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
         <v>133</v>
       </c>
-      <c r="D131" t="s">
-        <v>249</v>
-      </c>
-      <c r="E131" t="s">
-        <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>249</v>
-      </c>
-      <c r="I131" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1">
-        <v>290201020302</v>
-      </c>
-      <c r="B132">
-        <v>4</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="D134" t="s">
+        <v>251</v>
+      </c>
+      <c r="E134" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>290201020402</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
         <v>133</v>
       </c>
-      <c r="D132" t="s">
-        <v>250</v>
-      </c>
-      <c r="E132" t="s">
-        <v>250</v>
-      </c>
-      <c r="F132" t="s">
-        <v>250</v>
-      </c>
-      <c r="I132" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1">
-        <v>290201020303</v>
-      </c>
-      <c r="B133">
-        <v>4</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D135" t="s">
+        <v>252</v>
+      </c>
+      <c r="E135" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>290201020403</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
         <v>133</v>
       </c>
-      <c r="D133" t="s">
-        <v>251</v>
-      </c>
-      <c r="E133" t="s">
-        <v>251</v>
-      </c>
-      <c r="F133" t="s">
-        <v>251</v>
-      </c>
-      <c r="I133" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="1">
-        <v>290201020401</v>
-      </c>
-      <c r="B134">
-        <v>4</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D136" t="s">
+        <v>253</v>
+      </c>
+      <c r="E136" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>290201020404</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D137" t="s">
+        <v>254</v>
+      </c>
+      <c r="E137" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>290201020405</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>133</v>
+      </c>
+      <c r="D138" t="s">
+        <v>255</v>
+      </c>
+      <c r="E138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>290201020501</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
         <v>134</v>
       </c>
-      <c r="D134" t="s">
-        <v>252</v>
-      </c>
-      <c r="E134" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="1">
-        <v>290201020402</v>
-      </c>
-      <c r="B135">
-        <v>4</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="D139" t="s">
+        <v>256</v>
+      </c>
+      <c r="E139" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>290201020502</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
         <v>134</v>
       </c>
-      <c r="D135" t="s">
-        <v>253</v>
-      </c>
-      <c r="E135" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="1">
-        <v>290201020403</v>
-      </c>
-      <c r="B136">
-        <v>4</v>
-      </c>
-      <c r="C136" t="s">
-        <v>134</v>
-      </c>
-      <c r="D136" t="s">
-        <v>254</v>
-      </c>
-      <c r="E136" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1">
-        <v>290201020404</v>
-      </c>
-      <c r="B137">
-        <v>4</v>
-      </c>
-      <c r="C137" t="s">
-        <v>134</v>
-      </c>
-      <c r="D137" t="s">
-        <v>255</v>
-      </c>
-      <c r="E137" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1">
-        <v>290201020405</v>
-      </c>
-      <c r="B138">
-        <v>4</v>
-      </c>
-      <c r="C138" t="s">
-        <v>134</v>
-      </c>
-      <c r="D138" t="s">
-        <v>256</v>
-      </c>
-      <c r="E138" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="1">
-        <v>290201020501</v>
-      </c>
-      <c r="B139">
-        <v>4</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="D140" t="s">
+        <v>257</v>
+      </c>
+      <c r="E140" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2">
+        <v>290201030101</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
         <v>135</v>
       </c>
-      <c r="D139" t="s">
-        <v>257</v>
-      </c>
-      <c r="E139" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="1">
-        <v>290201020502</v>
-      </c>
-      <c r="B140">
-        <v>4</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="D141" t="s">
+        <v>258</v>
+      </c>
+      <c r="E141" t="s">
+        <v>258</v>
+      </c>
+      <c r="F141" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2">
+        <v>290201030102</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
         <v>135</v>
       </c>
-      <c r="D140" t="s">
-        <v>258</v>
-      </c>
-      <c r="E140" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1">
-        <v>290201030101</v>
-      </c>
-      <c r="B141">
-        <v>4</v>
-      </c>
-      <c r="C141" t="s">
-        <v>136</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="D142" t="s">
         <v>259</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E142" t="s">
         <v>259</v>
       </c>
-      <c r="F141" t="s">
-        <v>259</v>
-      </c>
-      <c r="I141" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1">
-        <v>290201030102</v>
-      </c>
-      <c r="B142">
-        <v>4</v>
-      </c>
-      <c r="C142" t="s">
-        <v>136</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="F142" t="s">
         <v>260</v>
       </c>
-      <c r="E142" t="s">
-        <v>260</v>
-      </c>
-      <c r="F142" t="s">
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2">
+        <v>290201030103</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>135</v>
+      </c>
+      <c r="D143" t="s">
         <v>261</v>
       </c>
-      <c r="I142" t="s">
+      <c r="E143" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1">
-        <v>290201030103</v>
-      </c>
-      <c r="B143">
-        <v>4</v>
-      </c>
-      <c r="C143" t="s">
-        <v>136</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="F143" t="s">
         <v>262</v>
       </c>
-      <c r="E143" t="s">
-        <v>262</v>
-      </c>
-      <c r="F143" t="s">
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>290201030104</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>135</v>
+      </c>
+      <c r="D144" t="s">
         <v>263</v>
       </c>
-      <c r="I143" t="s">
+      <c r="E144" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="1">
-        <v>290201030104</v>
-      </c>
-      <c r="B144">
-        <v>4</v>
-      </c>
-      <c r="C144" t="s">
-        <v>136</v>
-      </c>
-      <c r="D144" t="s">
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>290201030105</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" t="s">
         <v>264</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E145" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="1">
-        <v>290201030105</v>
-      </c>
-      <c r="B145">
-        <v>4</v>
-      </c>
-      <c r="C145" t="s">
-        <v>136</v>
-      </c>
-      <c r="D145" t="s">
+    <row r="146" spans="1:6">
+      <c r="A146" s="2">
+        <v>290201030201</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>137</v>
+      </c>
+      <c r="D146" t="s">
         <v>265</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E146" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1">
-        <v>290201030201</v>
-      </c>
-      <c r="B146">
-        <v>4</v>
-      </c>
-      <c r="C146" t="s">
-        <v>138</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="F146" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2">
+        <v>290201030202</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>137</v>
+      </c>
+      <c r="D147" t="s">
         <v>266</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E147" t="s">
         <v>266</v>
       </c>
-      <c r="F146" t="s">
-        <v>266</v>
-      </c>
-      <c r="I146" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="1">
-        <v>290201030202</v>
-      </c>
-      <c r="B147">
-        <v>4</v>
-      </c>
-      <c r="C147" t="s">
-        <v>138</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="F147" t="s">
         <v>267</v>
       </c>
-      <c r="E147" t="s">
-        <v>267</v>
-      </c>
-      <c r="F147" t="s">
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>290201030203</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>137</v>
+      </c>
+      <c r="D148" t="s">
         <v>268</v>
       </c>
-      <c r="I147" t="s">
+      <c r="E148" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="1">
-        <v>290201030203</v>
-      </c>
-      <c r="B148">
-        <v>4</v>
-      </c>
-      <c r="C148" t="s">
-        <v>138</v>
-      </c>
-      <c r="D148" t="s">
+    <row r="149" spans="1:6">
+      <c r="A149" s="2">
+        <v>290201030301</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>139</v>
+      </c>
+      <c r="D149" t="s">
         <v>269</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E149" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="1">
-        <v>290201030301</v>
-      </c>
-      <c r="B149">
-        <v>4</v>
-      </c>
-      <c r="C149" t="s">
-        <v>140</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="F149" t="s">
         <v>270</v>
       </c>
-      <c r="E149" t="s">
-        <v>270</v>
-      </c>
-      <c r="F149" t="s">
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="2">
+        <v>290201030302</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>139</v>
+      </c>
+      <c r="D150" t="s">
         <v>271</v>
       </c>
-      <c r="I149" t="s">
+      <c r="E150" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="1">
-        <v>290201030302</v>
-      </c>
-      <c r="B150">
-        <v>4</v>
-      </c>
-      <c r="C150" t="s">
-        <v>140</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="F150" t="s">
         <v>272</v>
       </c>
-      <c r="E150" t="s">
-        <v>272</v>
-      </c>
-      <c r="F150" t="s">
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="2">
+        <v>290201030303</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>139</v>
+      </c>
+      <c r="D151" t="s">
         <v>273</v>
       </c>
-      <c r="I150" t="s">
+      <c r="E151" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="1">
-        <v>290201030303</v>
-      </c>
-      <c r="B151">
-        <v>4</v>
-      </c>
-      <c r="C151" t="s">
-        <v>140</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="F151" t="s">
         <v>274</v>
       </c>
-      <c r="E151" t="s">
-        <v>274</v>
-      </c>
-      <c r="F151" t="s">
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>290201030304</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>139</v>
+      </c>
+      <c r="D152" t="s">
         <v>275</v>
       </c>
-      <c r="I151" t="s">
+      <c r="E152" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="1">
-        <v>290201030304</v>
-      </c>
-      <c r="B152">
-        <v>4</v>
-      </c>
-      <c r="C152" t="s">
-        <v>140</v>
-      </c>
-      <c r="D152" t="s">
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>290201030305</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>139</v>
+      </c>
+      <c r="D153" t="s">
         <v>276</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E153" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="1">
-        <v>290201030305</v>
-      </c>
-      <c r="B153">
-        <v>4</v>
-      </c>
-      <c r="C153" t="s">
-        <v>140</v>
-      </c>
-      <c r="D153" t="s">
+    <row r="154" spans="1:6">
+      <c r="A154" s="2">
+        <v>290201050101</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>154</v>
+      </c>
+      <c r="D154" t="s">
         <v>277</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E154" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="1">
-        <v>290201050101</v>
-      </c>
-      <c r="B154">
-        <v>4</v>
-      </c>
-      <c r="C154" t="s">
-        <v>155</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="F154" t="s">
         <v>278</v>
       </c>
-      <c r="E154" t="s">
-        <v>278</v>
-      </c>
-      <c r="F154" t="s">
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="2">
+        <v>290201050102</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>154</v>
+      </c>
+      <c r="D155" t="s">
         <v>279</v>
       </c>
-      <c r="I154" t="s">
+      <c r="E155" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="1">
-        <v>290201050102</v>
-      </c>
-      <c r="B155">
-        <v>4</v>
-      </c>
-      <c r="C155" t="s">
-        <v>155</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="F155" t="s">
         <v>280</v>
       </c>
-      <c r="E155" t="s">
-        <v>280</v>
-      </c>
-      <c r="F155" t="s">
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2">
+        <v>290201050103</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>154</v>
+      </c>
+      <c r="D156" t="s">
         <v>281</v>
       </c>
-      <c r="I155" t="s">
+      <c r="E156" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="1">
-        <v>290201050103</v>
-      </c>
-      <c r="B156">
-        <v>4</v>
-      </c>
-      <c r="C156" t="s">
-        <v>155</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="F156" t="s">
         <v>282</v>
       </c>
-      <c r="E156" t="s">
-        <v>282</v>
-      </c>
-      <c r="F156" t="s">
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2">
+        <v>290201050104</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>154</v>
+      </c>
+      <c r="D157" t="s">
         <v>283</v>
       </c>
-      <c r="I156" t="s">
+      <c r="E157" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="1">
-        <v>290201050104</v>
-      </c>
-      <c r="B157">
-        <v>4</v>
-      </c>
-      <c r="C157" t="s">
-        <v>155</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="F157" t="s">
         <v>284</v>
       </c>
-      <c r="E157" t="s">
-        <v>284</v>
-      </c>
-      <c r="F157" t="s">
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2">
+        <v>290201050201</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>156</v>
+      </c>
+      <c r="D158" t="s">
         <v>285</v>
       </c>
-      <c r="I157" t="s">
+      <c r="E158" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="1">
-        <v>290201050201</v>
-      </c>
-      <c r="B158">
-        <v>4</v>
-      </c>
-      <c r="C158" t="s">
-        <v>157</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="F158" t="s">
         <v>286</v>
       </c>
-      <c r="E158" t="s">
-        <v>286</v>
-      </c>
-      <c r="F158" t="s">
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2">
+        <v>290201050202</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>156</v>
+      </c>
+      <c r="D159" t="s">
         <v>287</v>
       </c>
-      <c r="I158" t="s">
+      <c r="E159" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="1">
-        <v>290201050202</v>
-      </c>
-      <c r="B159">
-        <v>4</v>
-      </c>
-      <c r="C159" t="s">
-        <v>157</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="F159" t="s">
         <v>288</v>
       </c>
-      <c r="E159" t="s">
-        <v>288</v>
-      </c>
-      <c r="F159" t="s">
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2">
+        <v>290201050203</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>156</v>
+      </c>
+      <c r="D160" t="s">
         <v>289</v>
       </c>
-      <c r="I159" t="s">
+      <c r="E160" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="1">
-        <v>290201050203</v>
-      </c>
-      <c r="B160">
-        <v>4</v>
-      </c>
-      <c r="C160" t="s">
-        <v>157</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="F160" t="s">
         <v>290</v>
       </c>
-      <c r="E160" t="s">
-        <v>290</v>
-      </c>
-      <c r="F160" t="s">
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2">
+        <v>290201050204</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>156</v>
+      </c>
+      <c r="D161" t="s">
         <v>291</v>
       </c>
-      <c r="I160" t="s">
+      <c r="E161" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="1">
-        <v>290201050204</v>
-      </c>
-      <c r="B161">
-        <v>4</v>
-      </c>
-      <c r="C161" t="s">
-        <v>157</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="F161" t="s">
         <v>292</v>
       </c>
-      <c r="E161" t="s">
-        <v>292</v>
-      </c>
-      <c r="F161" t="s">
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2">
+        <v>290201050301</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>158</v>
+      </c>
+      <c r="D162" t="s">
         <v>293</v>
       </c>
-      <c r="I161" t="s">
+      <c r="E162" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="1">
-        <v>290201050301</v>
-      </c>
-      <c r="B162">
-        <v>4</v>
-      </c>
-      <c r="C162" t="s">
-        <v>159</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="F162" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2">
+        <v>290201050302</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>158</v>
+      </c>
+      <c r="D163" t="s">
         <v>294</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E163" t="s">
         <v>294</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F163" t="s">
         <v>294</v>
       </c>
-      <c r="I162" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="1">
-        <v>290201050302</v>
-      </c>
-      <c r="B163">
-        <v>4</v>
-      </c>
-      <c r="C163" t="s">
-        <v>159</v>
-      </c>
-      <c r="D163" t="s">
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2">
+        <v>290201050303</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>158</v>
+      </c>
+      <c r="D164" t="s">
         <v>295</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E164" t="s">
         <v>295</v>
       </c>
-      <c r="F163" t="s">
-        <v>295</v>
-      </c>
-      <c r="I163" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="1">
-        <v>290201050303</v>
-      </c>
-      <c r="B164">
-        <v>4</v>
-      </c>
-      <c r="C164" t="s">
-        <v>159</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="F164" t="s">
         <v>296</v>
       </c>
-      <c r="E164" t="s">
-        <v>296</v>
-      </c>
-      <c r="F164" t="s">
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="2">
+        <v>290201050304</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165" t="s">
+        <v>158</v>
+      </c>
+      <c r="D165" t="s">
         <v>297</v>
       </c>
-      <c r="I164" t="s">
+      <c r="E165" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="1">
-        <v>290201050304</v>
-      </c>
-      <c r="B165">
-        <v>4</v>
-      </c>
-      <c r="C165" t="s">
-        <v>159</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="F165" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2">
+        <v>290201050305</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>158</v>
+      </c>
+      <c r="D166" t="s">
         <v>298</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E166" t="s">
         <v>298</v>
       </c>
-      <c r="F165" t="s">
-        <v>298</v>
-      </c>
-      <c r="I165" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="1">
-        <v>290201050305</v>
-      </c>
-      <c r="B166">
-        <v>4</v>
-      </c>
-      <c r="C166" t="s">
-        <v>159</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="F166" t="s">
         <v>299</v>
       </c>
-      <c r="E166" t="s">
-        <v>299</v>
-      </c>
-      <c r="F166" t="s">
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2">
+        <v>290201050306</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>158</v>
+      </c>
+      <c r="D167" t="s">
         <v>300</v>
       </c>
-      <c r="I166" t="s">
+      <c r="E167" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="1">
-        <v>290201050306</v>
-      </c>
-      <c r="B167">
-        <v>4</v>
-      </c>
-      <c r="C167" t="s">
-        <v>159</v>
-      </c>
-      <c r="D167" t="s">
+    <row r="168" spans="1:6">
+      <c r="A168" s="2">
+        <v>290201050401</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>161</v>
+      </c>
+      <c r="D168" t="s">
         <v>301</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E168" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="1">
-        <v>290201050401</v>
-      </c>
-      <c r="B168">
-        <v>4</v>
-      </c>
-      <c r="C168" t="s">
-        <v>162</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="F168" t="s">
         <v>302</v>
       </c>
-      <c r="E168" t="s">
-        <v>302</v>
-      </c>
-      <c r="F168" t="s">
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="2">
+        <v>290201050402</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>161</v>
+      </c>
+      <c r="D169" t="s">
         <v>303</v>
       </c>
-      <c r="I168" t="s">
+      <c r="E169" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="1">
-        <v>290201050402</v>
-      </c>
-      <c r="B169">
-        <v>4</v>
-      </c>
-      <c r="C169" t="s">
-        <v>162</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="F169" t="s">
         <v>304</v>
       </c>
-      <c r="E169" t="s">
-        <v>304</v>
-      </c>
-      <c r="F169" t="s">
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="2">
+        <v>290201050403</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>161</v>
+      </c>
+      <c r="D170" t="s">
         <v>305</v>
       </c>
-      <c r="I169" t="s">
+      <c r="E170" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="1">
-        <v>290201050403</v>
-      </c>
-      <c r="B170">
-        <v>4</v>
-      </c>
-      <c r="C170" t="s">
-        <v>162</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="F170" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2">
+        <v>290201050404</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>161</v>
+      </c>
+      <c r="D171" t="s">
         <v>306</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E171" t="s">
         <v>306</v>
       </c>
-      <c r="F170" t="s">
-        <v>306</v>
-      </c>
-      <c r="I170" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="1">
-        <v>290201050404</v>
-      </c>
-      <c r="B171">
-        <v>4</v>
-      </c>
-      <c r="C171" t="s">
-        <v>162</v>
-      </c>
-      <c r="D171" t="s">
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="2">
+        <v>290201050405</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>161</v>
+      </c>
+      <c r="D172" t="s">
         <v>307</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E172" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="1">
-        <v>290201050405</v>
-      </c>
-      <c r="B172">
-        <v>4</v>
-      </c>
-      <c r="C172" t="s">
-        <v>162</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="F172" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="2">
+        <v>290201050406</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>161</v>
+      </c>
+      <c r="D173" t="s">
         <v>308</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E173" t="s">
         <v>308</v>
       </c>
-      <c r="F172" t="s">
-        <v>308</v>
-      </c>
-      <c r="I172" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="1">
-        <v>290201050406</v>
-      </c>
-      <c r="B173">
-        <v>4</v>
-      </c>
-      <c r="C173" t="s">
-        <v>162</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="F173" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>290201050501</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>163</v>
+      </c>
+      <c r="D174" t="s">
         <v>309</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E174" t="s">
         <v>309</v>
       </c>
-      <c r="F173" t="s">
-        <v>162</v>
-      </c>
-      <c r="I173" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="1">
-        <v>290201050501</v>
-      </c>
-      <c r="B174">
-        <v>4</v>
-      </c>
-      <c r="C174" t="s">
-        <v>164</v>
-      </c>
-      <c r="D174" t="s">
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="2">
+        <v>290201050502</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>163</v>
+      </c>
+      <c r="D175" t="s">
         <v>310</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E175" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="1">
-        <v>290201050502</v>
-      </c>
-      <c r="B175">
-        <v>4</v>
-      </c>
-      <c r="C175" t="s">
-        <v>164</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="F175" t="s">
         <v>311</v>
       </c>
-      <c r="E175" t="s">
-        <v>311</v>
-      </c>
-      <c r="F175" t="s">
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="2">
+        <v>290201050503</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>163</v>
+      </c>
+      <c r="D176" t="s">
         <v>312</v>
       </c>
-      <c r="I175" t="s">
+      <c r="E176" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="1">
-        <v>290201050503</v>
-      </c>
-      <c r="B176">
-        <v>4</v>
-      </c>
-      <c r="C176" t="s">
-        <v>164</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="F176" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2">
+        <v>290201050504</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>163</v>
+      </c>
+      <c r="D177" t="s">
         <v>313</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E177" t="s">
         <v>313</v>
       </c>
-      <c r="F176" t="s">
-        <v>313</v>
-      </c>
-      <c r="I176" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="1">
-        <v>290201050504</v>
-      </c>
-      <c r="B177">
-        <v>4</v>
-      </c>
-      <c r="C177" t="s">
-        <v>164</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="F177" t="s">
         <v>314</v>
       </c>
-      <c r="E177" t="s">
-        <v>314</v>
-      </c>
-      <c r="F177" t="s">
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2">
+        <v>290201050505</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>163</v>
+      </c>
+      <c r="D178" t="s">
         <v>315</v>
       </c>
-      <c r="I177" t="s">
+      <c r="E178" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="1">
-        <v>290201050505</v>
-      </c>
-      <c r="B178">
-        <v>4</v>
-      </c>
-      <c r="C178" t="s">
-        <v>164</v>
-      </c>
-      <c r="D178" t="s">
+    <row r="179" spans="1:6">
+      <c r="A179" s="2">
+        <v>290201050601</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>165</v>
+      </c>
+      <c r="D179" t="s">
         <v>316</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E179" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="1">
-        <v>290201050601</v>
-      </c>
-      <c r="B179">
-        <v>4</v>
-      </c>
-      <c r="C179" t="s">
-        <v>166</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="F179" t="s">
         <v>317</v>
       </c>
-      <c r="E179" t="s">
-        <v>317</v>
-      </c>
-      <c r="F179" t="s">
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="2">
+        <v>290201050602</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>165</v>
+      </c>
+      <c r="D180" t="s">
         <v>318</v>
       </c>
-      <c r="I179" t="s">
+      <c r="E180" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="1">
-        <v>290201050602</v>
-      </c>
-      <c r="B180">
-        <v>4</v>
-      </c>
-      <c r="C180" t="s">
-        <v>166</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="F180" t="s">
         <v>319</v>
       </c>
-      <c r="E180" t="s">
-        <v>319</v>
-      </c>
-      <c r="F180" t="s">
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2">
+        <v>290201050603</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>165</v>
+      </c>
+      <c r="D181" t="s">
         <v>320</v>
       </c>
-      <c r="I180" t="s">
+      <c r="E181" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="1">
-        <v>290201050603</v>
-      </c>
-      <c r="B181">
-        <v>4</v>
-      </c>
-      <c r="C181" t="s">
-        <v>166</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="F181" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2">
+        <v>290201050604</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>165</v>
+      </c>
+      <c r="D182" t="s">
         <v>321</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E182" t="s">
         <v>321</v>
       </c>
-      <c r="F181" t="s">
-        <v>321</v>
-      </c>
-      <c r="I181" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="1">
-        <v>290201050604</v>
-      </c>
-      <c r="B182">
-        <v>4</v>
-      </c>
-      <c r="C182" t="s">
-        <v>166</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="F182" t="s">
         <v>322</v>
       </c>
-      <c r="E182" t="s">
-        <v>322</v>
-      </c>
-      <c r="F182" t="s">
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2">
+        <v>290201050605</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>165</v>
+      </c>
+      <c r="D183" t="s">
         <v>323</v>
       </c>
-      <c r="I182" t="s">
+      <c r="E183" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="1">
-        <v>290201050605</v>
-      </c>
-      <c r="B183">
-        <v>4</v>
-      </c>
-      <c r="C183" t="s">
-        <v>166</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="F183" t="s">
         <v>324</v>
       </c>
-      <c r="E183" t="s">
-        <v>324</v>
-      </c>
-      <c r="F183" t="s">
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2">
+        <v>290201050606</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>165</v>
+      </c>
+      <c r="D184" t="s">
         <v>325</v>
       </c>
-      <c r="I183" t="s">
+      <c r="E184" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="1">
-        <v>290201050606</v>
-      </c>
-      <c r="B184">
-        <v>4</v>
-      </c>
-      <c r="C184" t="s">
-        <v>166</v>
-      </c>
-      <c r="D184" t="s">
+    <row r="185" spans="1:6">
+      <c r="A185" s="2">
+        <v>290201050607</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>165</v>
+      </c>
+      <c r="D185" t="s">
         <v>326</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E185" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="1">
-        <v>290201050607</v>
-      </c>
-      <c r="B185">
-        <v>4</v>
-      </c>
-      <c r="C185" t="s">
-        <v>166</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="F185" t="s">
         <v>327</v>
       </c>
-      <c r="E185" t="s">
-        <v>327</v>
-      </c>
-      <c r="F185" t="s">
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2">
+        <v>290201050608</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>165</v>
+      </c>
+      <c r="D186" t="s">
         <v>328</v>
       </c>
-      <c r="I185" t="s">
+      <c r="E186" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="1">
-        <v>290201050608</v>
-      </c>
-      <c r="B186">
-        <v>4</v>
-      </c>
-      <c r="C186" t="s">
-        <v>166</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="F186" t="s">
         <v>329</v>
       </c>
-      <c r="E186" t="s">
-        <v>329</v>
-      </c>
-      <c r="F186" t="s">
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="2">
+        <v>290201050609</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>165</v>
+      </c>
+      <c r="D187" t="s">
         <v>330</v>
       </c>
-      <c r="I186" t="s">
+      <c r="E187" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="1">
-        <v>290201050609</v>
-      </c>
-      <c r="B187">
-        <v>4</v>
-      </c>
-      <c r="C187" t="s">
-        <v>166</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="F187" t="s">
         <v>331</v>
       </c>
-      <c r="E187" t="s">
-        <v>331</v>
-      </c>
-      <c r="F187" t="s">
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="2">
+        <v>290201050701</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>167</v>
+      </c>
+      <c r="D188" t="s">
         <v>332</v>
       </c>
-      <c r="I187" t="s">
+      <c r="E188" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="1">
-        <v>290201050701</v>
-      </c>
-      <c r="B188">
-        <v>4</v>
-      </c>
-      <c r="C188" t="s">
-        <v>168</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="F188" t="s">
         <v>333</v>
       </c>
-      <c r="E188" t="s">
-        <v>333</v>
-      </c>
-      <c r="F188" t="s">
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="2">
+        <v>290201050702</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>167</v>
+      </c>
+      <c r="D189" t="s">
         <v>334</v>
       </c>
-      <c r="I188" t="s">
+      <c r="E189" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="1">
-        <v>290201050702</v>
-      </c>
-      <c r="B189">
-        <v>4</v>
-      </c>
-      <c r="C189" t="s">
-        <v>168</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="F189" t="s">
         <v>335</v>
       </c>
-      <c r="E189" t="s">
-        <v>335</v>
-      </c>
-      <c r="F189" t="s">
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="2">
+        <v>290201050703</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>167</v>
+      </c>
+      <c r="D190" t="s">
         <v>336</v>
       </c>
-      <c r="I189" t="s">
+      <c r="E190" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="1">
-        <v>290201050703</v>
-      </c>
-      <c r="B190">
-        <v>4</v>
-      </c>
-      <c r="C190" t="s">
-        <v>168</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="F190" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="2">
+        <v>290201050801</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>169</v>
+      </c>
+      <c r="D191" t="s">
         <v>337</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E191" t="s">
         <v>337</v>
       </c>
-      <c r="F190" t="s">
-        <v>337</v>
-      </c>
-      <c r="I190" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="1">
-        <v>290201050801</v>
-      </c>
-      <c r="B191">
-        <v>4</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="F191" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2">
+        <v>290201050802</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>169</v>
+      </c>
+      <c r="D192" t="s">
+        <v>339</v>
+      </c>
+      <c r="E192" t="s">
+        <v>339</v>
+      </c>
+      <c r="F192" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2">
+        <v>290201050803</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>169</v>
+      </c>
+      <c r="D193" t="s">
+        <v>340</v>
+      </c>
+      <c r="E193" t="s">
+        <v>340</v>
+      </c>
+      <c r="F193" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>290201050804</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>169</v>
+      </c>
+      <c r="D194" t="s">
+        <v>342</v>
+      </c>
+      <c r="E194" t="s">
+        <v>342</v>
+      </c>
+      <c r="F194" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>290201050901</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
         <v>170</v>
       </c>
-      <c r="D191" t="s">
-        <v>338</v>
-      </c>
-      <c r="E191" t="s">
-        <v>338</v>
-      </c>
-      <c r="F191" t="s">
-        <v>339</v>
-      </c>
-      <c r="I191" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="1">
-        <v>290201050802</v>
-      </c>
-      <c r="B192">
-        <v>4</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="D195" t="s">
+        <v>344</v>
+      </c>
+      <c r="E195" t="s">
+        <v>344</v>
+      </c>
+      <c r="F195" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>290201050902</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s">
         <v>170</v>
       </c>
-      <c r="D192" t="s">
-        <v>340</v>
-      </c>
-      <c r="E192" t="s">
-        <v>340</v>
-      </c>
-      <c r="F192" t="s">
-        <v>340</v>
-      </c>
-      <c r="I192" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="1">
-        <v>290201050803</v>
-      </c>
-      <c r="B193">
-        <v>4</v>
-      </c>
-      <c r="C193" t="s">
-        <v>170</v>
-      </c>
-      <c r="D193" t="s">
-        <v>341</v>
-      </c>
-      <c r="E193" t="s">
-        <v>341</v>
-      </c>
-      <c r="F193" t="s">
-        <v>342</v>
-      </c>
-      <c r="I193" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="1">
-        <v>290201050804</v>
-      </c>
-      <c r="B194">
-        <v>4</v>
-      </c>
-      <c r="C194" t="s">
-        <v>170</v>
-      </c>
-      <c r="D194" t="s">
-        <v>343</v>
-      </c>
-      <c r="E194" t="s">
-        <v>343</v>
-      </c>
-      <c r="F194" t="s">
-        <v>344</v>
-      </c>
-      <c r="I194" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="1">
-        <v>290201050901</v>
-      </c>
-      <c r="B195">
-        <v>4</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="D196" t="s">
+        <v>346</v>
+      </c>
+      <c r="E196" t="s">
+        <v>346</v>
+      </c>
+      <c r="F196" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>290201060101</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
         <v>171</v>
       </c>
-      <c r="D195" t="s">
-        <v>345</v>
-      </c>
-      <c r="E195" t="s">
-        <v>345</v>
-      </c>
-      <c r="F195" t="s">
-        <v>346</v>
-      </c>
-      <c r="I195" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="A196" s="1">
-        <v>290201050902</v>
-      </c>
-      <c r="B196">
-        <v>4</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="D197" t="s">
+        <v>347</v>
+      </c>
+      <c r="E197" t="s">
+        <v>347</v>
+      </c>
+      <c r="F197" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>290201060102</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
         <v>171</v>
       </c>
-      <c r="D196" t="s">
-        <v>347</v>
-      </c>
-      <c r="E196" t="s">
-        <v>347</v>
-      </c>
-      <c r="F196" t="s">
-        <v>347</v>
-      </c>
-      <c r="I196" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
-      <c r="A197" s="1">
-        <v>290201060101</v>
-      </c>
-      <c r="B197">
-        <v>4</v>
-      </c>
-      <c r="C197" t="s">
-        <v>172</v>
-      </c>
-      <c r="D197" t="s">
-        <v>348</v>
-      </c>
-      <c r="E197" t="s">
-        <v>348</v>
-      </c>
-      <c r="F197" t="s">
+      <c r="D198" t="s">
         <v>349</v>
       </c>
-      <c r="I197" t="s">
+      <c r="E198" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198" s="1">
-        <v>290201060102</v>
-      </c>
-      <c r="B198">
-        <v>4</v>
-      </c>
-      <c r="C198" t="s">
-        <v>172</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="F198" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>290201060103</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>171</v>
+      </c>
+      <c r="D199" t="s">
         <v>350</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E199" t="s">
         <v>350</v>
       </c>
-      <c r="F198" t="s">
-        <v>350</v>
-      </c>
-      <c r="I198" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
-      <c r="A199" s="1">
-        <v>290201060103</v>
-      </c>
-      <c r="B199">
-        <v>4</v>
-      </c>
-      <c r="C199" t="s">
-        <v>172</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="F199" t="s">
         <v>351</v>
       </c>
-      <c r="E199" t="s">
-        <v>351</v>
-      </c>
-      <c r="F199" t="s">
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>290201060104</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200" t="s">
+        <v>171</v>
+      </c>
+      <c r="D200" t="s">
         <v>352</v>
       </c>
-      <c r="I199" t="s">
+      <c r="E200" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="1">
-        <v>290201060104</v>
-      </c>
-      <c r="B200">
-        <v>4</v>
-      </c>
-      <c r="C200" t="s">
-        <v>172</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="F200" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2">
+        <v>290201060105</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>171</v>
+      </c>
+      <c r="D201" t="s">
         <v>353</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E201" t="s">
         <v>353</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F201" t="s">
         <v>353</v>
       </c>
-      <c r="I200" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
-      <c r="A201" s="1">
-        <v>290201060105</v>
-      </c>
-      <c r="B201">
-        <v>4</v>
-      </c>
-      <c r="C201" t="s">
-        <v>172</v>
-      </c>
-      <c r="D201" t="s">
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2">
+        <v>290201060106</v>
+      </c>
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202" t="s">
+        <v>171</v>
+      </c>
+      <c r="D202" t="s">
         <v>354</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E202" t="s">
         <v>354</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F202" t="s">
         <v>354</v>
       </c>
-      <c r="I201" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="A202" s="1">
-        <v>290201060106</v>
-      </c>
-      <c r="B202">
-        <v>4</v>
-      </c>
-      <c r="C202" t="s">
-        <v>172</v>
-      </c>
-      <c r="D202" t="s">
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2">
+        <v>290201060107</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>171</v>
+      </c>
+      <c r="D203" t="s">
         <v>355</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E203" t="s">
         <v>355</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F203" t="s">
         <v>355</v>
       </c>
-      <c r="I202" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="1">
-        <v>290201060107</v>
-      </c>
-      <c r="B203">
-        <v>4</v>
-      </c>
-      <c r="C203" t="s">
-        <v>172</v>
-      </c>
-      <c r="D203" t="s">
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2">
+        <v>290303010101</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>192</v>
+      </c>
+      <c r="D204" t="s">
         <v>356</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E204" t="s">
         <v>356</v>
       </c>
-      <c r="F203" t="s">
-        <v>356</v>
-      </c>
-      <c r="I203" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
-      <c r="A204" s="1">
-        <v>290303010101</v>
-      </c>
-      <c r="B204">
-        <v>4</v>
-      </c>
-      <c r="C204" t="s">
-        <v>193</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="F204" t="s">
         <v>357</v>
       </c>
-      <c r="E204" t="s">
-        <v>357</v>
-      </c>
-      <c r="F204" t="s">
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2">
+        <v>290303010102</v>
+      </c>
+      <c r="B205">
+        <v>4</v>
+      </c>
+      <c r="C205" t="s">
+        <v>192</v>
+      </c>
+      <c r="D205" t="s">
         <v>358</v>
       </c>
-      <c r="I204" t="s">
+      <c r="E205" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
-      <c r="A205" s="1">
-        <v>290303010102</v>
-      </c>
-      <c r="B205">
-        <v>4</v>
-      </c>
-      <c r="C205" t="s">
-        <v>193</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="F205" t="s">
         <v>359</v>
       </c>
-      <c r="E205" t="s">
-        <v>359</v>
-      </c>
-      <c r="F205" t="s">
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2">
+        <v>290303010201</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206" t="s">
+        <v>194</v>
+      </c>
+      <c r="D206" t="s">
         <v>360</v>
       </c>
-      <c r="I205" t="s">
+      <c r="E206" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="206" spans="1:9">
-      <c r="A206" s="1">
-        <v>290303010201</v>
-      </c>
-      <c r="B206">
-        <v>4</v>
-      </c>
-      <c r="C206" t="s">
-        <v>195</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="F206" t="s">
         <v>361</v>
       </c>
-      <c r="E206" t="s">
-        <v>361</v>
-      </c>
-      <c r="F206" t="s">
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2">
+        <v>290303010202</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s">
+        <v>194</v>
+      </c>
+      <c r="D207" t="s">
         <v>362</v>
       </c>
-      <c r="I206" t="s">
+      <c r="E207" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="207" spans="1:9">
-      <c r="A207" s="1">
-        <v>290303010202</v>
-      </c>
-      <c r="B207">
-        <v>4</v>
-      </c>
-      <c r="C207" t="s">
-        <v>195</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="F207" t="s">
         <v>363</v>
       </c>
-      <c r="E207" t="s">
-        <v>363</v>
-      </c>
-      <c r="F207" t="s">
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2">
+        <v>290303010203</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208" t="s">
+        <v>194</v>
+      </c>
+      <c r="D208" t="s">
         <v>364</v>
       </c>
-      <c r="I207" t="s">
+      <c r="E208" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" s="1">
-        <v>290303010203</v>
-      </c>
-      <c r="B208">
-        <v>4</v>
-      </c>
-      <c r="C208" t="s">
-        <v>195</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="F208" t="s">
         <v>365</v>
       </c>
-      <c r="E208" t="s">
-        <v>365</v>
-      </c>
-      <c r="F208" t="s">
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2">
+        <v>290303010301</v>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+      <c r="C209" t="s">
+        <v>196</v>
+      </c>
+      <c r="D209" t="s">
         <v>366</v>
       </c>
-      <c r="I208" t="s">
+      <c r="E209" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="A209" s="1">
-        <v>290303010301</v>
-      </c>
-      <c r="B209">
-        <v>4</v>
-      </c>
-      <c r="C209" t="s">
-        <v>197</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="F209" t="s">
         <v>367</v>
       </c>
-      <c r="E209" t="s">
-        <v>367</v>
-      </c>
-      <c r="F209" t="s">
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2">
+        <v>290303010302</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>196</v>
+      </c>
+      <c r="D210" t="s">
         <v>368</v>
       </c>
-      <c r="I209" t="s">
+      <c r="E210" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="210" spans="1:9">
-      <c r="A210" s="1">
-        <v>290303010302</v>
-      </c>
-      <c r="B210">
-        <v>4</v>
-      </c>
-      <c r="C210" t="s">
-        <v>197</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="F210" t="s">
         <v>369</v>
       </c>
-      <c r="E210" t="s">
-        <v>369</v>
-      </c>
-      <c r="F210" t="s">
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2">
+        <v>290303020101</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s">
+        <v>198</v>
+      </c>
+      <c r="D211" t="s">
         <v>370</v>
       </c>
-      <c r="I210" t="s">
+      <c r="E211" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="211" spans="1:9">
-      <c r="A211" s="1">
-        <v>290303020101</v>
-      </c>
-      <c r="B211">
-        <v>4</v>
-      </c>
-      <c r="C211" t="s">
-        <v>199</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="F211" t="s">
         <v>371</v>
       </c>
-      <c r="E211" t="s">
-        <v>371</v>
-      </c>
-      <c r="F211" t="s">
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2">
+        <v>290303020102</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+      <c r="C212" t="s">
+        <v>198</v>
+      </c>
+      <c r="D212" t="s">
         <v>372</v>
       </c>
-      <c r="I211" t="s">
+      <c r="E212" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="212" spans="1:9">
-      <c r="A212" s="1">
-        <v>290303020102</v>
-      </c>
-      <c r="B212">
-        <v>4</v>
-      </c>
-      <c r="C212" t="s">
-        <v>199</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="F212" t="s">
         <v>373</v>
       </c>
-      <c r="E212" t="s">
-        <v>373</v>
-      </c>
-      <c r="F212" t="s">
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2">
+        <v>290303020103</v>
+      </c>
+      <c r="B213">
+        <v>4</v>
+      </c>
+      <c r="C213" t="s">
+        <v>198</v>
+      </c>
+      <c r="D213" t="s">
         <v>374</v>
       </c>
-      <c r="I212" t="s">
+      <c r="E213" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="A213" s="1">
-        <v>290303020103</v>
-      </c>
-      <c r="B213">
-        <v>4</v>
-      </c>
-      <c r="C213" t="s">
-        <v>199</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="F213" t="s">
         <v>375</v>
       </c>
-      <c r="E213" t="s">
-        <v>375</v>
-      </c>
-      <c r="F213" t="s">
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2">
+        <v>290303020104</v>
+      </c>
+      <c r="B214">
+        <v>4</v>
+      </c>
+      <c r="C214" t="s">
+        <v>198</v>
+      </c>
+      <c r="D214" t="s">
         <v>376</v>
       </c>
-      <c r="I213" t="s">
+      <c r="E214" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="214" spans="1:9">
-      <c r="A214" s="1">
-        <v>290303020104</v>
-      </c>
-      <c r="B214">
-        <v>4</v>
-      </c>
-      <c r="C214" t="s">
-        <v>199</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="F214" t="s">
         <v>377</v>
       </c>
-      <c r="E214" t="s">
-        <v>377</v>
-      </c>
-      <c r="F214" t="s">
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2">
+        <v>290303020105</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215" t="s">
+        <v>198</v>
+      </c>
+      <c r="D215" t="s">
         <v>378</v>
       </c>
-      <c r="I214" t="s">
+      <c r="E215" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="215" spans="1:9">
-      <c r="A215" s="1">
-        <v>290303020105</v>
-      </c>
-      <c r="B215">
-        <v>4</v>
-      </c>
-      <c r="C215" t="s">
-        <v>199</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="F215" t="s">
         <v>379</v>
       </c>
-      <c r="E215" t="s">
-        <v>379</v>
-      </c>
-      <c r="F215" t="s">
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2">
+        <v>290303020106</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+      <c r="C216" t="s">
+        <v>198</v>
+      </c>
+      <c r="D216" t="s">
         <v>380</v>
       </c>
-      <c r="I215" t="s">
+      <c r="E216" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="1">
-        <v>290303020106</v>
-      </c>
-      <c r="B216">
-        <v>4</v>
-      </c>
-      <c r="C216" t="s">
-        <v>199</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="F216" t="s">
         <v>381</v>
       </c>
-      <c r="E216" t="s">
-        <v>381</v>
-      </c>
-      <c r="F216" t="s">
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2">
+        <v>290303020107</v>
+      </c>
+      <c r="B217">
+        <v>4</v>
+      </c>
+      <c r="C217" t="s">
+        <v>198</v>
+      </c>
+      <c r="D217" t="s">
         <v>382</v>
       </c>
-      <c r="I216" t="s">
+      <c r="E217" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="217" spans="1:9">
-      <c r="A217" s="1">
-        <v>290303020107</v>
-      </c>
-      <c r="B217">
-        <v>4</v>
-      </c>
-      <c r="C217" t="s">
-        <v>199</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="F217" t="s">
         <v>383</v>
       </c>
-      <c r="E217" t="s">
-        <v>383</v>
-      </c>
-      <c r="F217" t="s">
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2">
+        <v>290303020108</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>198</v>
+      </c>
+      <c r="D218" t="s">
         <v>384</v>
       </c>
-      <c r="I217" t="s">
+      <c r="E218" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="218" spans="1:9">
-      <c r="A218" s="1">
-        <v>290303020108</v>
-      </c>
-      <c r="B218">
-        <v>4</v>
-      </c>
-      <c r="C218" t="s">
-        <v>199</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="F218" t="s">
         <v>385</v>
       </c>
-      <c r="E218" t="s">
-        <v>385</v>
-      </c>
-      <c r="F218" t="s">
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2">
+        <v>290303020201</v>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219" t="s">
+        <v>200</v>
+      </c>
+      <c r="D219" t="s">
         <v>386</v>
       </c>
-      <c r="I218" t="s">
+      <c r="E219" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="219" spans="1:9">
-      <c r="A219" s="1">
-        <v>290303020201</v>
-      </c>
-      <c r="B219">
-        <v>4</v>
-      </c>
-      <c r="C219" t="s">
-        <v>201</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="F219" t="s">
         <v>387</v>
       </c>
-      <c r="E219" t="s">
-        <v>387</v>
-      </c>
-      <c r="F219" t="s">
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2">
+        <v>290303020202</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+      <c r="C220" t="s">
+        <v>200</v>
+      </c>
+      <c r="D220" t="s">
         <v>388</v>
       </c>
-      <c r="I219" t="s">
+      <c r="E220" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="220" spans="1:9">
-      <c r="A220" s="1">
-        <v>290303020202</v>
-      </c>
-      <c r="B220">
-        <v>4</v>
-      </c>
-      <c r="C220" t="s">
-        <v>201</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="F220" t="s">
         <v>389</v>
       </c>
-      <c r="E220" t="s">
-        <v>389</v>
-      </c>
-      <c r="F220" t="s">
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2">
+        <v>290303020301</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221" t="s">
+        <v>202</v>
+      </c>
+      <c r="D221" t="s">
         <v>390</v>
       </c>
-      <c r="I220" t="s">
+      <c r="E221" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="221" spans="1:9">
-      <c r="A221" s="1">
-        <v>290303020301</v>
-      </c>
-      <c r="B221">
-        <v>4</v>
-      </c>
-      <c r="C221" t="s">
-        <v>203</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="F221" t="s">
         <v>391</v>
       </c>
-      <c r="E221" t="s">
-        <v>391</v>
-      </c>
-      <c r="F221" t="s">
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="2">
+        <v>290303020302</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s">
+        <v>202</v>
+      </c>
+      <c r="D222" t="s">
         <v>392</v>
       </c>
-      <c r="I221" t="s">
+      <c r="E222" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="222" spans="1:9">
-      <c r="A222" s="1">
-        <v>290303020302</v>
-      </c>
-      <c r="B222">
-        <v>4</v>
-      </c>
-      <c r="C222" t="s">
-        <v>203</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="F222" t="s">
         <v>393</v>
       </c>
-      <c r="E222" t="s">
-        <v>393</v>
-      </c>
-      <c r="F222" t="s">
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="2">
+        <v>290303020303</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+      <c r="C223" t="s">
+        <v>202</v>
+      </c>
+      <c r="D223" t="s">
         <v>394</v>
       </c>
-      <c r="I222" t="s">
+      <c r="E223" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="A223" s="1">
-        <v>290303020303</v>
-      </c>
-      <c r="B223">
-        <v>4</v>
-      </c>
-      <c r="C223" t="s">
-        <v>203</v>
-      </c>
-      <c r="D223" t="s">
+      <c r="F223" t="s">
         <v>395</v>
       </c>
-      <c r="E223" t="s">
-        <v>395</v>
-      </c>
-      <c r="F223" t="s">
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="2">
+        <v>290303020401</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+      <c r="C224" t="s">
+        <v>204</v>
+      </c>
+      <c r="D224" t="s">
         <v>396</v>
       </c>
-      <c r="I223" t="s">
+      <c r="E224" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="224" spans="1:9">
-      <c r="A224" s="1">
-        <v>290303020401</v>
-      </c>
-      <c r="B224">
-        <v>4</v>
-      </c>
-      <c r="C224" t="s">
-        <v>205</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="F224" t="s">
         <v>397</v>
       </c>
-      <c r="E224" t="s">
-        <v>397</v>
-      </c>
-      <c r="F224" t="s">
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="2">
+        <v>290303020402</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225" t="s">
+        <v>204</v>
+      </c>
+      <c r="D225" t="s">
         <v>398</v>
       </c>
-      <c r="I224" t="s">
+      <c r="E225" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="225" spans="1:9">
-      <c r="A225" s="1">
-        <v>290303020402</v>
-      </c>
-      <c r="B225">
-        <v>4</v>
-      </c>
-      <c r="C225" t="s">
-        <v>205</v>
-      </c>
-      <c r="D225" t="s">
+      <c r="F225" t="s">
         <v>399</v>
       </c>
-      <c r="E225" t="s">
-        <v>399</v>
-      </c>
-      <c r="F225" t="s">
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2">
+        <v>290303020403</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226" t="s">
+        <v>204</v>
+      </c>
+      <c r="D226" t="s">
         <v>400</v>
       </c>
-      <c r="I225" t="s">
+      <c r="E226" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="226" spans="1:9">
-      <c r="A226" s="1">
-        <v>290303020403</v>
-      </c>
-      <c r="B226">
-        <v>4</v>
-      </c>
-      <c r="C226" t="s">
-        <v>205</v>
-      </c>
-      <c r="D226" t="s">
+      <c r="F226" t="s">
         <v>401</v>
       </c>
-      <c r="E226" t="s">
-        <v>401</v>
-      </c>
-      <c r="F226" t="s">
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="2">
+        <v>290303020501</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227" t="s">
+        <v>206</v>
+      </c>
+      <c r="D227" t="s">
         <v>402</v>
       </c>
-      <c r="I226" t="s">
+      <c r="E227" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="227" spans="1:9">
-      <c r="A227" s="1">
-        <v>290303020501</v>
-      </c>
-      <c r="B227">
-        <v>4</v>
-      </c>
-      <c r="C227" t="s">
-        <v>207</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="F227" t="s">
         <v>403</v>
       </c>
-      <c r="E227" t="s">
-        <v>403</v>
-      </c>
-      <c r="F227" t="s">
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2">
+        <v>290303020502</v>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>206</v>
+      </c>
+      <c r="D228" t="s">
         <v>404</v>
       </c>
-      <c r="I227" t="s">
+      <c r="E228" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="228" spans="1:9">
-      <c r="A228" s="1">
-        <v>290303020502</v>
-      </c>
-      <c r="B228">
-        <v>4</v>
-      </c>
-      <c r="C228" t="s">
-        <v>207</v>
-      </c>
-      <c r="D228" t="s">
+      <c r="F228" t="s">
         <v>405</v>
       </c>
-      <c r="E228" t="s">
-        <v>405</v>
-      </c>
-      <c r="F228" t="s">
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2">
+        <v>290303020503</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229" t="s">
+        <v>206</v>
+      </c>
+      <c r="D229" t="s">
         <v>406</v>
       </c>
-      <c r="I228" t="s">
+      <c r="E229" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="229" spans="1:9">
-      <c r="A229" s="1">
-        <v>290303020503</v>
-      </c>
-      <c r="B229">
-        <v>4</v>
-      </c>
-      <c r="C229" t="s">
-        <v>207</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="F229" t="s">
         <v>407</v>
       </c>
-      <c r="E229" t="s">
-        <v>407</v>
-      </c>
-      <c r="F229" t="s">
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="2">
+        <v>290303020504</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>206</v>
+      </c>
+      <c r="D230" t="s">
         <v>408</v>
       </c>
-      <c r="I229" t="s">
+      <c r="E230" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="230" spans="1:9">
-      <c r="A230" s="1">
-        <v>290303020504</v>
-      </c>
-      <c r="B230">
-        <v>4</v>
-      </c>
-      <c r="C230" t="s">
-        <v>207</v>
-      </c>
-      <c r="D230" t="s">
+      <c r="F230" t="s">
         <v>409</v>
       </c>
-      <c r="E230" t="s">
-        <v>409</v>
-      </c>
-      <c r="F230" t="s">
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="2">
+        <v>290303020505</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>206</v>
+      </c>
+      <c r="D231" t="s">
         <v>410</v>
       </c>
-      <c r="I230" t="s">
+      <c r="E231" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231" s="1">
-        <v>290303020505</v>
-      </c>
-      <c r="B231">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
-        <v>207</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="F231" t="s">
         <v>411</v>
       </c>
-      <c r="E231" t="s">
-        <v>411</v>
-      </c>
-      <c r="F231" t="s">
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="2">
+        <v>290303020506</v>
+      </c>
+      <c r="B232">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>206</v>
+      </c>
+      <c r="D232" t="s">
         <v>412</v>
       </c>
-      <c r="I231" t="s">
+      <c r="E232" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="A232" s="1">
-        <v>290303020506</v>
-      </c>
-      <c r="B232">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>207</v>
-      </c>
-      <c r="D232" t="s">
+      <c r="F232" t="s">
         <v>413</v>
       </c>
-      <c r="E232" t="s">
-        <v>413</v>
-      </c>
-      <c r="F232" t="s">
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="2">
+        <v>290303020507</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s">
+        <v>206</v>
+      </c>
+      <c r="D233" t="s">
         <v>414</v>
       </c>
-      <c r="I232" t="s">
+      <c r="E233" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233" s="1">
-        <v>290303020507</v>
-      </c>
-      <c r="B233">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>207</v>
-      </c>
-      <c r="D233" t="s">
+      <c r="F233" t="s">
         <v>415</v>
       </c>
-      <c r="E233" t="s">
-        <v>415</v>
-      </c>
-      <c r="F233" t="s">
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="2">
+        <v>290303020508</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s">
+        <v>206</v>
+      </c>
+      <c r="D234" t="s">
         <v>416</v>
       </c>
-      <c r="I233" t="s">
+      <c r="E234" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="A234" s="1">
-        <v>290303020508</v>
-      </c>
-      <c r="B234">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>207</v>
-      </c>
-      <c r="D234" t="s">
+      <c r="F234" t="s">
         <v>417</v>
       </c>
-      <c r="E234" t="s">
-        <v>417</v>
-      </c>
-      <c r="F234" t="s">
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2">
+        <v>290303020509</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235" t="s">
+        <v>206</v>
+      </c>
+      <c r="D235" t="s">
         <v>418</v>
       </c>
-      <c r="I234" t="s">
+      <c r="E235" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="235" spans="1:9">
-      <c r="A235" s="1">
-        <v>290303020509</v>
-      </c>
-      <c r="B235">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>207</v>
-      </c>
-      <c r="D235" t="s">
+      <c r="F235" t="s">
         <v>419</v>
       </c>
-      <c r="E235" t="s">
-        <v>419</v>
-      </c>
-      <c r="F235" t="s">
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="2">
+        <v>290303020510</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>206</v>
+      </c>
+      <c r="D236" t="s">
         <v>420</v>
       </c>
-      <c r="I235" t="s">
+      <c r="E236" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="236" spans="1:9">
-      <c r="A236" s="1">
-        <v>290303020510</v>
-      </c>
-      <c r="B236">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>207</v>
-      </c>
-      <c r="D236" t="s">
+      <c r="F236" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="2">
+        <v>290303020511</v>
+      </c>
+      <c r="B237">
+        <v>4</v>
+      </c>
+      <c r="C237" t="s">
+        <v>206</v>
+      </c>
+      <c r="D237" t="s">
         <v>421</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E237" t="s">
         <v>421</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F237" t="s">
         <v>421</v>
       </c>
-      <c r="I236" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
-      <c r="A237" s="1">
-        <v>290303020511</v>
-      </c>
-      <c r="B237">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>207</v>
-      </c>
-      <c r="D237" t="s">
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="2">
+        <v>290303020601</v>
+      </c>
+      <c r="B238">
+        <v>4</v>
+      </c>
+      <c r="C238" t="s">
+        <v>208</v>
+      </c>
+      <c r="D238" t="s">
         <v>422</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E238" t="s">
         <v>422</v>
       </c>
-      <c r="F237" t="s">
-        <v>422</v>
-      </c>
-      <c r="I237" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
-      <c r="A238" s="1">
-        <v>290303020601</v>
-      </c>
-      <c r="B238">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>209</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="F238" t="s">
         <v>423</v>
       </c>
-      <c r="E238" t="s">
-        <v>423</v>
-      </c>
-      <c r="F238" t="s">
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="2">
+        <v>290303020602</v>
+      </c>
+      <c r="B239">
+        <v>4</v>
+      </c>
+      <c r="C239" t="s">
+        <v>208</v>
+      </c>
+      <c r="D239" t="s">
         <v>424</v>
       </c>
-      <c r="I238" t="s">
+      <c r="E239" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="239" spans="1:9">
-      <c r="A239" s="1">
-        <v>290303020602</v>
-      </c>
-      <c r="B239">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>209</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="F239" t="s">
         <v>425</v>
       </c>
-      <c r="E239" t="s">
-        <v>425</v>
-      </c>
-      <c r="F239" t="s">
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="2">
+        <v>290303020603</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>208</v>
+      </c>
+      <c r="D240" t="s">
         <v>426</v>
       </c>
-      <c r="I239" t="s">
+      <c r="E240" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240" s="1">
-        <v>290303020603</v>
-      </c>
-      <c r="B240">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>209</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="F240" t="s">
         <v>427</v>
       </c>
-      <c r="E240" t="s">
-        <v>427</v>
-      </c>
-      <c r="F240" t="s">
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="2">
+        <v>290303020604</v>
+      </c>
+      <c r="B241">
+        <v>4</v>
+      </c>
+      <c r="C241" t="s">
+        <v>208</v>
+      </c>
+      <c r="D241" t="s">
         <v>428</v>
       </c>
-      <c r="I240" t="s">
+      <c r="E241" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="A241" s="1">
-        <v>290303020604</v>
-      </c>
-      <c r="B241">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>209</v>
-      </c>
-      <c r="D241" t="s">
+      <c r="F241" t="s">
         <v>429</v>
       </c>
-      <c r="E241" t="s">
-        <v>429</v>
-      </c>
-      <c r="F241" t="s">
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="2">
+        <v>290303020605</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>208</v>
+      </c>
+      <c r="D242" t="s">
         <v>430</v>
       </c>
-      <c r="I241" t="s">
+      <c r="E242" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="242" spans="1:9">
-      <c r="A242" s="1">
-        <v>290303020605</v>
-      </c>
-      <c r="B242">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>209</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="F242" t="s">
         <v>431</v>
       </c>
-      <c r="E242" t="s">
-        <v>431</v>
-      </c>
-      <c r="F242" t="s">
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="2">
+        <v>290303020606</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>208</v>
+      </c>
+      <c r="D243" t="s">
         <v>432</v>
       </c>
-      <c r="I242" t="s">
+      <c r="E243" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="243" spans="1:9">
-      <c r="A243" s="1">
-        <v>290303020606</v>
-      </c>
-      <c r="B243">
-        <v>4</v>
-      </c>
-      <c r="C243" t="s">
-        <v>209</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="F243" t="s">
         <v>433</v>
       </c>
-      <c r="E243" t="s">
-        <v>433</v>
-      </c>
-      <c r="F243" t="s">
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="2">
+        <v>290303020607</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>208</v>
+      </c>
+      <c r="D244" t="s">
         <v>434</v>
       </c>
-      <c r="I243" t="s">
+      <c r="E244" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="244" spans="1:9">
-      <c r="A244" s="1">
-        <v>290303020607</v>
-      </c>
-      <c r="B244">
-        <v>4</v>
-      </c>
-      <c r="C244" t="s">
-        <v>209</v>
-      </c>
-      <c r="D244" t="s">
+      <c r="F244" t="s">
         <v>435</v>
       </c>
-      <c r="E244" t="s">
-        <v>435</v>
-      </c>
-      <c r="F244" t="s">
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="2">
+        <v>290303020608</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>208</v>
+      </c>
+      <c r="D245" t="s">
         <v>436</v>
       </c>
-      <c r="I244" t="s">
+      <c r="E245" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="245" spans="1:9">
-      <c r="A245" s="1">
-        <v>290303020608</v>
-      </c>
-      <c r="B245">
-        <v>4</v>
-      </c>
-      <c r="C245" t="s">
-        <v>209</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="F245" t="s">
         <v>437</v>
       </c>
-      <c r="E245" t="s">
-        <v>437</v>
-      </c>
-      <c r="F245" t="s">
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="2">
+        <v>290303020701</v>
+      </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>210</v>
+      </c>
+      <c r="D246" t="s">
         <v>438</v>
       </c>
-      <c r="I245" t="s">
+      <c r="E246" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="246" spans="1:9">
-      <c r="A246" s="1">
-        <v>290303020701</v>
-      </c>
-      <c r="B246">
-        <v>4</v>
-      </c>
-      <c r="C246" t="s">
-        <v>211</v>
-      </c>
-      <c r="D246" t="s">
+      <c r="F246" t="s">
         <v>439</v>
       </c>
-      <c r="E246" t="s">
-        <v>439</v>
-      </c>
-      <c r="F246" t="s">
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="2">
+        <v>290303020702</v>
+      </c>
+      <c r="B247">
+        <v>4</v>
+      </c>
+      <c r="C247" t="s">
+        <v>210</v>
+      </c>
+      <c r="D247" t="s">
         <v>440</v>
       </c>
-      <c r="I246" t="s">
+      <c r="E247" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="247" spans="1:9">
-      <c r="A247" s="1">
-        <v>290303020702</v>
-      </c>
-      <c r="B247">
-        <v>4</v>
-      </c>
-      <c r="C247" t="s">
-        <v>211</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="F247" t="s">
         <v>441</v>
       </c>
-      <c r="E247" t="s">
-        <v>441</v>
-      </c>
-      <c r="F247" t="s">
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="2">
+        <v>290303020703</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+      <c r="C248" t="s">
+        <v>210</v>
+      </c>
+      <c r="D248" t="s">
         <v>442</v>
       </c>
-      <c r="I247" t="s">
+      <c r="E248" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="248" spans="1:9">
-      <c r="A248" s="1">
-        <v>290303020703</v>
-      </c>
-      <c r="B248">
-        <v>4</v>
-      </c>
-      <c r="C248" t="s">
-        <v>211</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="F248" t="s">
         <v>443</v>
       </c>
-      <c r="E248" t="s">
-        <v>443</v>
-      </c>
-      <c r="F248" t="s">
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="2">
+        <v>290303020801</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>212</v>
+      </c>
+      <c r="D249" t="s">
         <v>444</v>
       </c>
-      <c r="I248" t="s">
+      <c r="E249" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="249" spans="1:9">
-      <c r="A249" s="1">
-        <v>290303020801</v>
-      </c>
-      <c r="B249">
-        <v>4</v>
-      </c>
-      <c r="C249" t="s">
-        <v>213</v>
-      </c>
-      <c r="D249" t="s">
+      <c r="F249" t="s">
         <v>445</v>
       </c>
-      <c r="E249" t="s">
-        <v>445</v>
-      </c>
-      <c r="F249" t="s">
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="2">
+        <v>290303020802</v>
+      </c>
+      <c r="B250">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>212</v>
+      </c>
+      <c r="D250" t="s">
         <v>446</v>
       </c>
-      <c r="I249" t="s">
+      <c r="E250" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="250" spans="1:9">
-      <c r="A250" s="1">
-        <v>290303020802</v>
-      </c>
-      <c r="B250">
-        <v>4</v>
-      </c>
-      <c r="C250" t="s">
-        <v>213</v>
-      </c>
-      <c r="D250" t="s">
+      <c r="F250" t="s">
         <v>447</v>
       </c>
-      <c r="E250" t="s">
-        <v>447</v>
-      </c>
-      <c r="F250" t="s">
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="2">
+        <v>290303020803</v>
+      </c>
+      <c r="B251">
+        <v>4</v>
+      </c>
+      <c r="C251" t="s">
+        <v>212</v>
+      </c>
+      <c r="D251" t="s">
         <v>448</v>
       </c>
-      <c r="I250" t="s">
+      <c r="E251" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="251" spans="1:9">
-      <c r="A251" s="1">
-        <v>290303020803</v>
-      </c>
-      <c r="B251">
-        <v>4</v>
-      </c>
-      <c r="C251" t="s">
-        <v>213</v>
-      </c>
-      <c r="D251" t="s">
+      <c r="F251" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="2">
+        <v>290303020901</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>214</v>
+      </c>
+      <c r="D252" t="s">
         <v>449</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E252" t="s">
         <v>449</v>
       </c>
-      <c r="F251" t="s">
-        <v>449</v>
-      </c>
-      <c r="I251" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="1">
-        <v>290303020901</v>
-      </c>
-      <c r="B252">
-        <v>4</v>
-      </c>
-      <c r="C252" t="s">
-        <v>215</v>
-      </c>
-      <c r="D252" t="s">
+      <c r="F252" t="s">
         <v>450</v>
       </c>
-      <c r="E252" t="s">
-        <v>450</v>
-      </c>
-      <c r="F252" t="s">
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="2">
+        <v>290303020902</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
+      </c>
+      <c r="C253" t="s">
+        <v>214</v>
+      </c>
+      <c r="D253" t="s">
         <v>451</v>
       </c>
-      <c r="I252" t="s">
+      <c r="E253" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="A253" s="1">
-        <v>290303020902</v>
-      </c>
-      <c r="B253">
-        <v>4</v>
-      </c>
-      <c r="C253" t="s">
-        <v>215</v>
-      </c>
-      <c r="D253" t="s">
+      <c r="F253" t="s">
         <v>452</v>
       </c>
-      <c r="E253" t="s">
-        <v>452</v>
-      </c>
-      <c r="F253" t="s">
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="2">
+        <v>290303020903</v>
+      </c>
+      <c r="B254">
+        <v>4</v>
+      </c>
+      <c r="C254" t="s">
+        <v>214</v>
+      </c>
+      <c r="D254" t="s">
         <v>453</v>
       </c>
-      <c r="I253" t="s">
+      <c r="E254" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="A254" s="1">
-        <v>290303020903</v>
-      </c>
-      <c r="B254">
-        <v>4</v>
-      </c>
-      <c r="C254" t="s">
-        <v>215</v>
-      </c>
-      <c r="D254" t="s">
+      <c r="F254" t="s">
         <v>454</v>
-      </c>
-      <c r="E254" t="s">
-        <v>454</v>
-      </c>
-      <c r="F254" t="s">
-        <v>455</v>
-      </c>
-      <c r="I254" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="1">
-        <v>290303020902</v>
-      </c>
-      <c r="B255">
-        <v>4</v>
-      </c>
-      <c r="C255" t="s">
-        <v>215</v>
-      </c>
-      <c r="D255" t="s">
-        <v>452</v>
-      </c>
-      <c r="E255" t="s">
-        <v>452</v>
-      </c>
-      <c r="F255" t="s">
-        <v>453</v>
-      </c>
-      <c r="I255" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="A256" s="1">
-        <v>290303020903</v>
-      </c>
-      <c r="B256">
-        <v>4</v>
-      </c>
-      <c r="C256" t="s">
-        <v>215</v>
-      </c>
-      <c r="D256" t="s">
-        <v>454</v>
-      </c>
-      <c r="E256" t="s">
-        <v>454</v>
-      </c>
-      <c r="F256" t="s">
-        <v>455</v>
-      </c>
-      <c r="I256" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>
